--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_rarity_info[稀有度].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_rarity_info[稀有度].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="RarityInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -38,10 +38,13 @@
     <t>ui_board_other_color</t>
   </si>
   <si>
-    <t>name_cn</t>
-  </si>
-  <si>
-    <t>name_en</t>
+    <t>ui_board_color_item</t>
+  </si>
+  <si>
+    <t>item_add_relationship</t>
+  </si>
+  <si>
+    <t>name[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -53,6 +56,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -62,12 +68,15 @@
     <t>ui外边框颜色(其他)</t>
   </si>
   <si>
+    <t>ui外边框颜色(道具)</t>
+  </si>
+  <si>
+    <t>不同品质道具关系加成</t>
+  </si>
+  <si>
     <t>名字-中文</t>
   </si>
   <si>
-    <t>名字-英文</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -80,12 +89,6 @@
     <t>普通</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>测试数据</t>
-  </si>
-  <si>
     <t>#71A258</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
     <t>稀有</t>
   </si>
   <si>
-    <t>Rare</t>
-  </si>
-  <si>
     <t>#4F60AD</t>
   </si>
   <si>
@@ -107,9 +107,6 @@
     <t>超凡</t>
   </si>
   <si>
-    <t xml:space="preserve">Epic </t>
-  </si>
-  <si>
     <t>#8F2A80</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>至尊</t>
   </si>
   <si>
-    <t>Ultra</t>
-  </si>
-  <si>
     <t>#EFC230</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>神话</t>
   </si>
   <si>
-    <t>Mythic</t>
-  </si>
-  <si>
     <t>#922B2F</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
   </si>
   <si>
     <t>传说</t>
-  </si>
-  <si>
-    <t>Legendary</t>
   </si>
 </sst>
 </file>
@@ -156,19 +144,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -180,12 +162,6 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -653,156 +629,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,23 +1123,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="3" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1188,85 +1158,103 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1277,61 +1265,85 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1"/>
@@ -1355,7 +1367,7 @@
     <row r="69" ht="12" customHeight="1"/>
     <row r="70" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:U88">
+  <sortState ref="A4:V88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_rarity_info[稀有度].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_rarity_info[稀有度].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>ui_board_color_item</t>
   </si>
   <si>
+    <t>buff_color</t>
+  </si>
+  <si>
     <t>item_add_relationship</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
     <t>ui外边框颜色(道具)</t>
   </si>
   <si>
+    <t>buff颜色</t>
+  </si>
+  <si>
     <t>不同品质道具关系加成</t>
   </si>
   <si>
@@ -86,7 +92,7 @@
     <t>#E0E0E0</t>
   </si>
   <si>
-    <t>普通</t>
+    <t>N</t>
   </si>
   <si>
     <t>#71A258</t>
@@ -95,7 +101,7 @@
     <t>#B7D4A9</t>
   </si>
   <si>
-    <t>稀有</t>
+    <t>R</t>
   </si>
   <si>
     <t>#4F60AD</t>
@@ -104,7 +110,7 @@
     <t>#B6BEE2</t>
   </si>
   <si>
-    <t>超凡</t>
+    <t>SR</t>
   </si>
   <si>
     <t>#8F2A80</t>
@@ -113,7 +119,7 @@
     <t>#D9A2D0</t>
   </si>
   <si>
-    <t>至尊</t>
+    <t>SSR</t>
   </si>
   <si>
     <t>#EFC230</t>
@@ -122,7 +128,7 @@
     <t>#FFEFBD</t>
   </si>
   <si>
-    <t>神话</t>
+    <t>UR</t>
   </si>
   <si>
     <t>#922B2F</t>
@@ -131,7 +137,7 @@
     <t>#F8999D</t>
   </si>
   <si>
-    <t>传说</t>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -155,7 +161,7 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF24292F"/>
-      <name val="Helvetica"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1123,23 +1129,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="3" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,189 +1167,216 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
+      <c r="H6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row r="7" customFormat="1" spans="1:8">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row r="8" customFormat="1" spans="1:8">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3">
         <v>16</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>31</v>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:7">
+    <row r="9" customFormat="1" spans="1:8">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
+      <c r="H9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1"/>
@@ -1367,7 +1400,7 @@
     <row r="69" ht="12" customHeight="1"/>
     <row r="70" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:V88">
+  <sortState ref="A4:W88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
